--- a/Calculo de sensibilidades celda de carga.xlsx
+++ b/Calculo de sensibilidades celda de carga.xlsx
@@ -9,14 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Citrocon" sheetId="3" r:id="rId1"/>
     <sheet name="Romaneo de celda romana" sheetId="4" r:id="rId2"/>
     <sheet name="Levadura" sheetId="1" r:id="rId3"/>
     <sheet name="Mineral" sheetId="2" r:id="rId4"/>
+    <sheet name="Meedición de ruido stepper" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="datosLevaSinMotor" localSheetId="4">'Meedición de ruido stepper'!$B$5:$B$76</definedName>
+    <definedName name="DatosLevMotor" localSheetId="4">'Meedición de ruido stepper'!$E$6:$J$28</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,8 +31,32 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="datosLevaSinMotor" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="C:\Users\Usuario\datosLevaSinMotor.txt" decimal="," thousands=" ">
+      <textFields count="3">
+        <textField type="skip"/>
+        <textField type="skip"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="DatosLevMotor" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Usuario\DatosLevMotor.txt" decimal="," thousands=" ">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -76,6 +105,48 @@
   <si>
     <t>Medición de la LC</t>
   </si>
+  <si>
+    <t>Cálculo de sensibilidades mineral</t>
+  </si>
+  <si>
+    <t>Medición de ruido por parte de los motores</t>
+  </si>
+  <si>
+    <t>Experimento:</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Iteración</t>
+  </si>
+  <si>
+    <t>Tabla 1,</t>
+  </si>
+  <si>
+    <t>Se corrió la levadura por   luego se encendió el motor y finalmente se apagó el motor por un segundo más, Únicamente se encendió el motor de levadura, El resto quedaron apagados mas no desconectados,</t>
+  </si>
+  <si>
+    <t>Tabla 2</t>
+  </si>
+  <si>
+    <t>Medición de ruido por parte de los stepper</t>
+  </si>
+  <si>
+    <t>Experimento</t>
+  </si>
+  <si>
+    <t>Se corrieron todas las romanas, por 1 segundo, se encendió el motor y a los 6 segundos se apagaron los steppers</t>
+  </si>
+  <si>
+    <t>Concentrado</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+  </si>
+  <si>
+    <t>Levadura</t>
+  </si>
 </sst>
 </file>
 
@@ -121,10 +192,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,7 +229,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -234,7 +305,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1683,6 +1753,2349 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mineral!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medición</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8332895888013997E-2"/>
+                  <c:y val="0.31617927967337417"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mineral!$I$4:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mineral!$J$4:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>40851</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>167645</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>209990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27B0-4827-B480-88E935D39C61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="292524271"/>
+        <c:axId val="292530095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="292524271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292530095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="292530095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292524271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meedición de ruido stepper'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medición</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meedición de ruido stepper'!$A$7:$A$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meedición de ruido stepper'!$B$7:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>-0.19639412066799999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.20541575872000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7503088176099997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.7850074255000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.0312981443199997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3310663576200002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24913600466300001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.75996891005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.7252703021600002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.2867076572900001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.107218698386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.3026273785900002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.95491956863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42262904412300001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.30916459631600002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.111382531333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.465655317909</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.88412052908399996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.37405099307400003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10652472622799999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9209426917800001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.1176560396399999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.63846826465</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.2488167774700001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.48335160793300003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.14122333411999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.65684464739299997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.15232688864499999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.84005329706200005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.83415453372000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.96288636899900004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.98613443628599995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.98335854765499997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.86573026690199995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.9556412996699999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64123027384099995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53678746408699995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.96913211841900004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.25121792113699998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.27828283529300002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.11971019722700001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.187719468695</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.457674638094</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.6462129939300006E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.13810045940999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.69536010215300004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.43477355688500002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.53678746408699995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.59508112534500002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.382378658968</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.95837554997300001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.71930214159799999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.72936473788699996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.6866993296199999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.30083693042199999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.32894280281499999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.57426196061000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.184943580064</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.19674110674699999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.236991491901</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.201251925773</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.27064914155600001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.17002317867</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.28314064039800002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.3310663576200002E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.122139099779</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.35184388402299999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.26509736429399999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.6023955918899999E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.31506335965799998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBCA-4186-899D-2F096B468DA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="364308479"/>
+        <c:axId val="364306815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="364308479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364306815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="364306815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364308479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meedición de ruido stepper'!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Concentrado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meedición de ruido stepper'!$E$7:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.91855096817000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.47971796989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1559040546400001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75155997276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3357410430900001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.93138003349</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.60750794411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2031550407399996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7872869968399998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.38293600082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.05909109116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6547801494599996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2389459610000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8346011638600004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5107541084299996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.1064381599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.690567016599999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.2862231731</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.8818969727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.558068990700001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.142234087</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.7378940582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meedición de ruido stepper'!$F$7:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-10.4245846455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.2981865566300002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.35707822058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9184131465600001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5788540196199996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.54265754516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9405291924599997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1758062764700004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9408187642500003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5245593079199997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.67394215803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90491186158500003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6242443986000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2260831794999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.42056683679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.55644840193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.66963477757300005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92301009881600005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0491186158500006E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8187280558899999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.64693958808</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.33926955515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F73-4E83-AAD7-89D0D1207E49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="362770543"/>
+        <c:axId val="362785935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="362770543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362785935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="362785935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362770543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meedición de ruido stepper'!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mineral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meedición de ruido stepper'!$E$7:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.91855096817000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.47971796989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1559040546400001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75155997276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3357410430900001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.93138003349</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.60750794411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2031550407399996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7872869968399998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.38293600082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.05909109116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6547801494599996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2389459610000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8346011638600004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5107541084299996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.1064381599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.690567016599999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.2862231731</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.8818969727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.558068990700001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.142234087</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.7378940582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meedición de ruido stepper'!$G$7:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.63805436337599997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.65617548879400001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.92322365283700003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3929422985199995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50262279446799996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.50262279446799996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.115402956605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.04244158321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.18597997138799999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.482594182165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20982355746299999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.26514067715799999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.14687649022400001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.289938006676</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.328087744397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.12017167382000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.70100143061499998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.26323319027199998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37482117310399998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.47591797806399999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.124940391035</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.393896041965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACE0-43DC-B56F-0E6173C8AB71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="285116831"/>
+        <c:axId val="285117247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="285116831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285117247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285117247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285116831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meedición de ruido stepper'!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Levadura</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meedición de ruido stepper'!$E$7:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.91855096817000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.47971796989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1559040546400001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75155997276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3357410430900001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.93138003349</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.60750794411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2031550407399996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7872869968399998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.38293600082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.05909109116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6547801494599996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2389459610000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8346011638600004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5107541084299996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.1064381599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.690567016599999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.2862231731</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.8818969727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.558068990700001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.142234087</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.7378940582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meedición de ruido stepper'!$H$7:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.21166150814000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.193965218115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.7787477966400004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.273078044109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1672611694799999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5108190259400003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74706102791200002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.235603547586</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.80432761038E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.447265055726</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.7503088176099997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.7662285389100005E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7411900234599999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.3686241308E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.8231064969699998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.13914141764599999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.2582686782600001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.5108190259400003E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.9334619495100001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.5705561492899998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.0187788865900001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.1069549889700002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2340-42E0-B66B-33F95AEB8DEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369289535"/>
+        <c:axId val="369289951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369289535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369289951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="369289951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369289535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1803,6 +4216,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2836,6 +5449,2586 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3425,16 +8618,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3453,7 +8646,170 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DatosLevMotor" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="datosLevaSinMotor" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4356,8 +9712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5309,15 +10665,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="E8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5326,8 +10682,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5340,8 +10699,11 @@
       <c r="E2" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="3">
+        <v>43539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5355,8 +10717,17 @@
         <f>C3/(-2107.8)</f>
         <v>10.271372995540373</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5370,8 +10741,17 @@
         <f t="shared" ref="D4:D39" si="0">C4/(-2107.8)</f>
         <v>20.073061960337792</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>40851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5385,8 +10765,17 @@
         <f t="shared" si="0"/>
         <v>29.542651105417971</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5">
+        <v>63706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5400,8 +10789,17 @@
         <f t="shared" si="0"/>
         <v>39.301641521966026</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>70</v>
+      </c>
+      <c r="J6">
+        <v>73277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5415,8 +10813,17 @@
         <f t="shared" si="0"/>
         <v>50.645222506879207</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <v>83170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5430,8 +10837,17 @@
         <f t="shared" si="0"/>
         <v>59.279817819527466</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>90</v>
+      </c>
+      <c r="J8">
+        <v>93961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5445,8 +10861,17 @@
         <f t="shared" si="0"/>
         <v>70.068317677198962</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>103774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5460,8 +10885,17 @@
         <f t="shared" si="0"/>
         <v>80.097732232659638</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+      <c r="J10">
+        <v>126497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5475,8 +10909,17 @@
         <f t="shared" si="0"/>
         <v>89.74285985387607</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>140</v>
+      </c>
+      <c r="J11">
+        <v>147504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5493,8 +10936,17 @@
       <c r="F12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>160</v>
+      </c>
+      <c r="J12">
+        <v>167645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5508,8 +10960,17 @@
         <f t="shared" si="0"/>
         <v>108.73422525856343</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>180</v>
+      </c>
+      <c r="J13">
+        <v>188190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5523,8 +10984,17 @@
         <f t="shared" si="0"/>
         <v>120.6423759369959</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>200</v>
+      </c>
+      <c r="J14">
+        <v>209990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5539,7 +11009,7 @@
         <v>130.30173640762879</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5927,6 +11397,906 @@
       </c>
       <c r="B42">
         <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>-0.19639412066799999</v>
+      </c>
+      <c r="E7">
+        <v>0.91855096817000004</v>
+      </c>
+      <c r="F7">
+        <v>-10.4245846455</v>
+      </c>
+      <c r="G7">
+        <v>0.63805436337599997</v>
+      </c>
+      <c r="H7">
+        <v>0.21166150814000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>-0.20541575872000001</v>
+      </c>
+      <c r="E8">
+        <v>1.47971796989</v>
+      </c>
+      <c r="F8">
+        <v>-6.2981865566300002</v>
+      </c>
+      <c r="G8">
+        <v>-0.65617548879400001</v>
+      </c>
+      <c r="H8">
+        <v>-0.193965218115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>9.7503088176099997E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.1559040546400001</v>
+      </c>
+      <c r="F9">
+        <v>5.35707822058</v>
+      </c>
+      <c r="G9">
+        <v>-0.92322365283700003</v>
+      </c>
+      <c r="H9">
+        <v>-8.7787477966400004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>-9.7850074255000002E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.75155997276</v>
+      </c>
+      <c r="F10">
+        <v>1.9184131465600001</v>
+      </c>
+      <c r="G10">
+        <v>8.3929422985199995E-2</v>
+      </c>
+      <c r="H10">
+        <v>-0.273078044109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>-5.0312981443199997E-2</v>
+      </c>
+      <c r="E11">
+        <v>3.3357410430900001</v>
+      </c>
+      <c r="F11">
+        <v>4.5788540196199996</v>
+      </c>
+      <c r="G11">
+        <v>0.50262279446799996</v>
+      </c>
+      <c r="H11">
+        <v>-1.1672611694799999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>3.3310663576200002E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.93138003349</v>
+      </c>
+      <c r="F12">
+        <v>4.54265754516</v>
+      </c>
+      <c r="G12">
+        <v>-0.50262279446799996</v>
+      </c>
+      <c r="H12">
+        <v>-4.5108190259400003E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0.24913600466300001</v>
+      </c>
+      <c r="E13">
+        <v>4.60750794411</v>
+      </c>
+      <c r="F13">
+        <v>8.9405291924599997</v>
+      </c>
+      <c r="G13">
+        <v>0.115402956605</v>
+      </c>
+      <c r="H13">
+        <v>0.74706102791200002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>-5.75996891005E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.2031550407399996</v>
+      </c>
+      <c r="F14">
+        <v>9.1758062764700004</v>
+      </c>
+      <c r="G14">
+        <v>-1.04244158321</v>
+      </c>
+      <c r="H14">
+        <v>-0.235603547586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>-5.7252703021600002E-2</v>
+      </c>
+      <c r="E15">
+        <v>5.7872869968399998</v>
+      </c>
+      <c r="F15">
+        <v>4.9408187642500003</v>
+      </c>
+      <c r="G15">
+        <v>-0.18597997138799999</v>
+      </c>
+      <c r="H15">
+        <v>-1.80432761038E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>-7.2867076572900001E-3</v>
+      </c>
+      <c r="E16">
+        <v>6.38293600082</v>
+      </c>
+      <c r="F16">
+        <v>4.5245593079199997</v>
+      </c>
+      <c r="G16">
+        <v>0.482594182165</v>
+      </c>
+      <c r="H16">
+        <v>-0.447265055726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>0.107218698386</v>
+      </c>
+      <c r="E17">
+        <v>7.05909109116</v>
+      </c>
+      <c r="F17">
+        <v>3.67394215803</v>
+      </c>
+      <c r="G17">
+        <v>0.20982355746299999</v>
+      </c>
+      <c r="H17">
+        <v>-9.7503088176099997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>-4.3026273785900002E-2</v>
+      </c>
+      <c r="E18">
+        <v>7.6547801494599996</v>
+      </c>
+      <c r="F18">
+        <v>0.90491186158500003</v>
+      </c>
+      <c r="G18">
+        <v>-0.26514067715799999</v>
+      </c>
+      <c r="H18">
+        <v>-6.7662285389100005E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>1.95491956863</v>
+      </c>
+      <c r="E19">
+        <v>8.2389459610000007</v>
+      </c>
+      <c r="F19">
+        <v>2.6242443986000001</v>
+      </c>
+      <c r="G19">
+        <v>-0.14687649022400001</v>
+      </c>
+      <c r="H19">
+        <v>2.7411900234599999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>0.42262904412300001</v>
+      </c>
+      <c r="E20">
+        <v>8.8346011638600004</v>
+      </c>
+      <c r="F20">
+        <v>2.2260831794999998</v>
+      </c>
+      <c r="G20">
+        <v>-0.289938006676</v>
+      </c>
+      <c r="H20">
+        <v>-9.3686241308E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>-0.30916459631600002</v>
+      </c>
+      <c r="E21">
+        <v>9.5107541084299996</v>
+      </c>
+      <c r="F21">
+        <v>3.42056683679</v>
+      </c>
+      <c r="G21">
+        <v>0.328087744397</v>
+      </c>
+      <c r="H21">
+        <v>-4.8231064969699998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>-0.111382531333</v>
+      </c>
+      <c r="E22">
+        <v>10.1064381599</v>
+      </c>
+      <c r="F22">
+        <v>1.55644840193</v>
+      </c>
+      <c r="G22">
+        <v>-0.12017167382000001</v>
+      </c>
+      <c r="H22">
+        <v>-0.13914141764599999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>-0.465655317909</v>
+      </c>
+      <c r="E23">
+        <v>10.690567016599999</v>
+      </c>
+      <c r="F23">
+        <v>-0.66963477757300005</v>
+      </c>
+      <c r="G23">
+        <v>-0.70100143061499998</v>
+      </c>
+      <c r="H23">
+        <v>-8.2582686782600001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>-0.88412052908399996</v>
+      </c>
+      <c r="E24">
+        <v>11.2862231731</v>
+      </c>
+      <c r="F24">
+        <v>0.92301009881600005</v>
+      </c>
+      <c r="G24">
+        <v>-0.26323319027199998</v>
+      </c>
+      <c r="H24">
+        <v>-4.5108190259400003E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>-0.37405099307400003</v>
+      </c>
+      <c r="E25">
+        <v>11.8818969727</v>
+      </c>
+      <c r="F25">
+        <v>9.0491186158500006E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.37482117310399998</v>
+      </c>
+      <c r="H25">
+        <v>-5.9334619495100001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>0.10652472622799999</v>
+      </c>
+      <c r="E26">
+        <v>12.558068990700001</v>
+      </c>
+      <c r="F26">
+        <v>-3.8187280558899999</v>
+      </c>
+      <c r="G26">
+        <v>-0.47591797806399999</v>
+      </c>
+      <c r="H26">
+        <v>-8.5705561492899998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>3.9209426917800001E-2</v>
+      </c>
+      <c r="E27">
+        <v>13.142234087</v>
+      </c>
+      <c r="F27">
+        <v>-1.64693958808</v>
+      </c>
+      <c r="G27">
+        <v>0.124940391035</v>
+      </c>
+      <c r="H27">
+        <v>-3.0187788865900001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>-2.1176560396399999</v>
+      </c>
+      <c r="E28">
+        <v>13.7378940582</v>
+      </c>
+      <c r="F28">
+        <v>-1.33926955515</v>
+      </c>
+      <c r="G28">
+        <v>-0.393896041965</v>
+      </c>
+      <c r="H28">
+        <v>-6.1069549889700002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>-1.63846826465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>-2.2488167774700001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>-0.48335160793300003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>-0.14122333411999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>-0.65684464739299997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>0.15232688864499999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>-0.84005329706200005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>-0.83415453372000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>-0.96288636899900004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>-0.98613443628599995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>-0.98335854765499997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>-0.86573026690199995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>-3.9556412996699999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>0.64123027384099995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>0.53678746408699995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>-0.96913211841900004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45">
+        <v>0.25121792113699998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>0.27828283529300002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>-0.11971019722700001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>-0.187719468695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>-0.457674638094</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>9.6462129939300006E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>0.13810045940999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52">
+        <v>-0.69536010215300004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53">
+        <v>-0.43477355688500002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54">
+        <v>-0.53678746408699995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <v>-0.59508112534500002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <v>-0.382378658968</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57">
+        <v>-0.95837554997300001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58">
+        <v>-0.71930214159799999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59">
+        <v>-0.72936473788699996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60">
+        <v>-1.6866993296199999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>-0.30083693042199999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62">
+        <v>0.32894280281499999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <v>-0.57426196061000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="B64">
+        <v>-0.184943580064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65">
+        <v>-0.19674110674699999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66">
+        <v>-0.236991491901</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67">
+        <v>-0.201251925773</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>62</v>
+      </c>
+      <c r="B68">
+        <v>-0.27064914155600001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="B69">
+        <v>-0.17002317867</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>64</v>
+      </c>
+      <c r="B70">
+        <v>-0.28314064039800002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>65</v>
+      </c>
+      <c r="B71">
+        <v>-3.3310663576200002E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>66</v>
+      </c>
+      <c r="B72">
+        <v>0.122139099779</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>67</v>
+      </c>
+      <c r="B73">
+        <v>-0.35184388402299999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>68</v>
+      </c>
+      <c r="B74">
+        <v>-0.26509736429399999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>69</v>
+      </c>
+      <c r="B75">
+        <v>-2.6023955918899999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>70</v>
+      </c>
+      <c r="B76">
+        <v>-0.31506335965799998</v>
       </c>
     </row>
   </sheetData>
